--- a/layer4.xlsx
+++ b/layer4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:43 PM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -471,28 +471,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>55226</v>
+        <v>64681</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>51.105.71.137</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G2" t="n">
-        <v>55</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:43 PM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -502,28 +502,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>55288</v>
+        <v>64681</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>51.105.71.137</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:43 PM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,28 +533,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>51.105.71.137</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>54616</v>
+        <v>443</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>53</v>
+        <v>64681</v>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:43 PM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -564,28 +564,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>51.105.71.137</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>55225</v>
+        <v>443</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>53</v>
+        <v>64681</v>
       </c>
       <c r="G5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:43 PM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,28 +595,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>51.105.71.137</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>54748</v>
+        <v>443</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>53</v>
+        <v>64681</v>
       </c>
       <c r="G6" t="n">
-        <v>55</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:43 PM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -626,28 +626,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>54615</v>
+        <v>64681</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>51.105.71.137</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G7" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:44 PM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -657,28 +657,28 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>64541</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>13.89.179.13</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>54616</v>
+        <v>443</v>
       </c>
       <c r="G8" t="n">
-        <v>66</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:44 PM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -688,28 +688,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>64541</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>13.89.179.13</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>55288</v>
+        <v>443</v>
       </c>
       <c r="G9" t="n">
-        <v>66</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:44 PM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -719,28 +719,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>13.89.179.13</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>55225</v>
+        <v>64541</v>
       </c>
       <c r="G10" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:44 PM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -750,28 +750,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>13.89.179.13</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>55226</v>
+        <v>64541</v>
       </c>
       <c r="G11" t="n">
-        <v>66</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:44 PM</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -781,28 +781,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>64541</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>13.89.179.13</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>54748</v>
+        <v>443</v>
       </c>
       <c r="G12" t="n">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:44 PM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -812,28 +812,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>13.89.179.13</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>54615</v>
+        <v>64541</v>
       </c>
       <c r="G13" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -843,59 +843,59 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>54747</v>
+        <v>64685</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G14" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>fe80:0:0:0:b0a1:9251:36bc:d7dd</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>55289</v>
+        <v>14012</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>ff02:0:0:0:0:0:1:2</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>53</v>
+        <v>55261</v>
       </c>
       <c r="G15" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -905,19 +905,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>54747</v>
+        <v>64685</v>
       </c>
       <c r="G16" t="n">
         <v>66</v>
@@ -926,7 +926,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -936,28 +936,28 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>64685</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>55289</v>
+        <v>443</v>
       </c>
       <c r="G17" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -967,28 +967,28 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>54749</v>
+        <v>64685</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G18" t="n">
-        <v>55</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -998,28 +998,28 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>54618</v>
+        <v>443</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>53</v>
+        <v>64685</v>
       </c>
       <c r="G19" t="n">
-        <v>55</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1029,28 +1029,28 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>54749</v>
+        <v>64685</v>
       </c>
       <c r="G20" t="n">
-        <v>66</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1060,28 +1060,28 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>64685</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>54618</v>
+        <v>443</v>
       </c>
       <c r="G21" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1091,28 +1091,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>54750</v>
+        <v>443</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>53</v>
+        <v>64685</v>
       </c>
       <c r="G22" t="n">
-        <v>55</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1122,28 +1122,28 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>55092</v>
+        <v>443</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>53</v>
+        <v>64685</v>
       </c>
       <c r="G23" t="n">
-        <v>55</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1153,28 +1153,28 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>55091</v>
+        <v>64685</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G24" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1184,28 +1184,28 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>55125</v>
+        <v>443</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>53</v>
+        <v>64685</v>
       </c>
       <c r="G25" t="n">
-        <v>55</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1215,28 +1215,28 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>54750</v>
+        <v>64685</v>
       </c>
       <c r="G26" t="n">
-        <v>66</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1246,28 +1246,28 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>55091</v>
+        <v>64685</v>
       </c>
       <c r="G27" t="n">
-        <v>66</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1277,28 +1277,28 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>53</v>
+        <v>64685</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>55092</v>
+        <v>443</v>
       </c>
       <c r="G28" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1308,28 +1308,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>53</v>
+        <v>64685</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>55125</v>
+        <v>443</v>
       </c>
       <c r="G29" t="n">
-        <v>66</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1339,28 +1339,28 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>54617</v>
+        <v>443</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>53</v>
+        <v>64685</v>
       </c>
       <c r="G30" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1370,28 +1370,28 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>55124</v>
+        <v>64685</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G31" t="n">
-        <v>55</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1401,28 +1401,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>53</v>
+        <v>64601</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>52.104.90.25</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>54617</v>
+        <v>443</v>
       </c>
       <c r="G32" t="n">
-        <v>66</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1432,28 +1432,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>52.104.90.25</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>55124</v>
+        <v>64601</v>
       </c>
       <c r="G33" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1463,90 +1463,90 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>55227</v>
+        <v>443</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>53</v>
+        <v>64685</v>
       </c>
       <c r="G34" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>fe80:0:0:0:b0a1:9251:36bc:d7dd</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>55228</v>
+        <v>14012</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>ff02:0:0:0:0:0:0:fb</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>53</v>
+        <v>55261</v>
       </c>
       <c r="G35" t="n">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>fe80:0:0:0:b0a1:9251:36bc:d7dd</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>53</v>
+        <v>14012</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>ff02:0:0:0:0:0:0:fb</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>55227</v>
+        <v>55261</v>
       </c>
       <c r="G36" t="n">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:29 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1556,28 +1556,28 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>52.104.90.25</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>55228</v>
+        <v>64601</v>
       </c>
       <c r="G37" t="n">
-        <v>66</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1587,28 +1587,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>52.104.90.25</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>55642</v>
+        <v>443</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>53</v>
+        <v>64601</v>
       </c>
       <c r="G38" t="n">
-        <v>55</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:46 PM</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1618,28 +1618,28 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>55641</v>
+        <v>64601</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>52.104.90.25</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G39" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1649,28 +1649,28 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>55642</v>
+        <v>64685</v>
       </c>
       <c r="G40" t="n">
-        <v>66</v>
+        <v>859</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1680,19 +1680,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>55641</v>
+        <v>443</v>
       </c>
       <c r="G41" t="n">
         <v>66</v>
@@ -1701,7 +1701,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1711,28 +1711,28 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>54037</v>
+        <v>64685</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>40.90.133.102</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G42" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1742,19 +1742,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>54037</v>
+        <v>64686</v>
       </c>
       <c r="G43" t="n">
         <v>66</v>
@@ -1763,7 +1763,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1773,28 +1773,28 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>55349</v>
+        <v>64686</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G44" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1804,28 +1804,28 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>55350</v>
+        <v>64686</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G45" t="n">
-        <v>55</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1835,28 +1835,28 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>55349</v>
+        <v>64686</v>
       </c>
       <c r="G46" t="n">
-        <v>66</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1866,90 +1866,90 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>55350</v>
+        <v>64686</v>
       </c>
       <c r="G47" t="n">
-        <v>66</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>fe80:0:0:0:d6f5:47ff:fe8b:bf38</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>65163</v>
+        <v>64686</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ff02:0:0:0:0:0:0:fb</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>48952</v>
+        <v>443</v>
       </c>
       <c r="G48" t="n">
-        <v>102</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>fe80:0:0:0:d6f5:47ff:fe8b:bf38</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>65163</v>
+        <v>443</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ff02:0:0:0:0:0:0:fb</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>48952</v>
+        <v>64686</v>
       </c>
       <c r="G49" t="n">
-        <v>439</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1959,28 +1959,28 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>55446</v>
+        <v>443</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="G50" t="n">
-        <v>55</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1990,28 +1990,28 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>55445</v>
+        <v>64686</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G51" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2021,28 +2021,28 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>55446</v>
+        <v>64686</v>
       </c>
       <c r="G52" t="n">
-        <v>66</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2052,28 +2052,28 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>55445</v>
+        <v>64686</v>
       </c>
       <c r="G53" t="n">
-        <v>66</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2083,28 +2083,28 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>54036</v>
+        <v>64686</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G54" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2114,28 +2114,28 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>54036</v>
+        <v>443</v>
       </c>
       <c r="G55" t="n">
-        <v>66</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2145,28 +2145,28 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>54044</v>
+        <v>443</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="G56" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2176,28 +2176,28 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>54050</v>
+        <v>64686</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G57" t="n">
-        <v>55</v>
+        <v>800</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2207,28 +2207,28 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>54045</v>
+        <v>64686</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G58" t="n">
-        <v>55</v>
+        <v>13014</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2238,28 +2238,28 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>54044</v>
+        <v>64686</v>
       </c>
       <c r="G59" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2269,28 +2269,28 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>54050</v>
+        <v>443</v>
       </c>
       <c r="G60" t="n">
-        <v>66</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2300,28 +2300,28 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>54045</v>
+        <v>64686</v>
       </c>
       <c r="G61" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2331,28 +2331,28 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>54047</v>
+        <v>64686</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G62" t="n">
-        <v>55</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2362,28 +2362,28 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>54047</v>
+        <v>64686</v>
       </c>
       <c r="G63" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2393,28 +2393,28 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>54046</v>
+        <v>64686</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G64" t="n">
-        <v>55</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:30 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2424,28 +2424,28 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>54046</v>
+        <v>64686</v>
       </c>
       <c r="G65" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2455,28 +2455,28 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>54051</v>
+        <v>443</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="G66" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2486,28 +2486,28 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>54995</v>
+        <v>64686</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G67" t="n">
-        <v>55</v>
+        <v>11574</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2517,28 +2517,28 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>54052</v>
+        <v>443</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="G68" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2548,28 +2548,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>54994</v>
+        <v>64686</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G69" t="n">
-        <v>55</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2579,28 +2579,28 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>54049</v>
+        <v>443</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="G70" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2610,28 +2610,28 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>54752</v>
+        <v>64686</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G71" t="n">
-        <v>55</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2641,28 +2641,28 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>54052</v>
+        <v>64686</v>
       </c>
       <c r="G72" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2672,28 +2672,28 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>54994</v>
+        <v>443</v>
       </c>
       <c r="G73" t="n">
-        <v>66</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2703,28 +2703,28 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>54995</v>
+        <v>64686</v>
       </c>
       <c r="G74" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2734,28 +2734,28 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>54051</v>
+        <v>443</v>
       </c>
       <c r="G75" t="n">
-        <v>66</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2765,28 +2765,28 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>54049</v>
+        <v>64686</v>
       </c>
       <c r="G76" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2796,28 +2796,28 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>54752</v>
+        <v>443</v>
       </c>
       <c r="G77" t="n">
-        <v>66</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2827,28 +2827,28 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>54751</v>
+        <v>443</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="G78" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2858,28 +2858,28 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>54751</v>
+        <v>443</v>
       </c>
       <c r="G79" t="n">
-        <v>66</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2889,28 +2889,28 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>55606</v>
+        <v>443</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="G80" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2920,28 +2920,28 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>55605</v>
+        <v>64686</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G81" t="n">
-        <v>55</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2951,28 +2951,28 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>55606</v>
+        <v>64686</v>
       </c>
       <c r="G82" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2982,28 +2982,28 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>55605</v>
+        <v>443</v>
       </c>
       <c r="G83" t="n">
-        <v>66</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3013,28 +3013,28 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>55185</v>
+        <v>443</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="G84" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3044,28 +3044,28 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>55186</v>
+        <v>64686</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G85" t="n">
-        <v>55</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3075,28 +3075,28 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>55185</v>
+        <v>64686</v>
       </c>
       <c r="G86" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3106,28 +3106,28 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>55186</v>
+        <v>443</v>
       </c>
       <c r="G87" t="n">
-        <v>66</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3137,28 +3137,28 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>54754</v>
+        <v>443</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="G88" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3168,28 +3168,28 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>54061</v>
+        <v>443</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="G89" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3199,28 +3199,28 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>54057</v>
+        <v>64686</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G90" t="n">
-        <v>55</v>
+        <v>11574</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3230,28 +3230,28 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>54056</v>
+        <v>443</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="G91" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3261,28 +3261,28 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>55198</v>
+        <v>64686</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G92" t="n">
-        <v>55</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3292,28 +3292,28 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>54754</v>
+        <v>64686</v>
       </c>
       <c r="G93" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3323,28 +3323,28 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>54057</v>
+        <v>443</v>
       </c>
       <c r="G94" t="n">
-        <v>66</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3354,28 +3354,28 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>54061</v>
+        <v>64686</v>
       </c>
       <c r="G95" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3385,28 +3385,28 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>54056</v>
+        <v>443</v>
       </c>
       <c r="G96" t="n">
-        <v>66</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3416,28 +3416,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>55198</v>
+        <v>64686</v>
       </c>
       <c r="G97" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3447,28 +3447,28 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>54060</v>
+        <v>64686</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G98" t="n">
-        <v>55</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3478,28 +3478,28 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>54755</v>
+        <v>443</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="G99" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3509,28 +3509,28 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>54060</v>
+        <v>443</v>
       </c>
       <c r="G100" t="n">
-        <v>66</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3540,28 +3540,28 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>54755</v>
+        <v>64686</v>
       </c>
       <c r="G101" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3571,28 +3571,28 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>54059</v>
+        <v>64686</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G102" t="n">
-        <v>55</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3602,28 +3602,28 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>54059</v>
+        <v>64686</v>
       </c>
       <c r="G103" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3633,28 +3633,28 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>55199</v>
+        <v>64686</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G104" t="n">
-        <v>55</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3664,28 +3664,28 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>54062</v>
+        <v>443</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="G105" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3695,28 +3695,28 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>55199</v>
+        <v>443</v>
       </c>
       <c r="G106" t="n">
-        <v>66</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3726,28 +3726,28 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>54062</v>
+        <v>64686</v>
       </c>
       <c r="G107" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3757,28 +3757,28 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>55229</v>
+        <v>64686</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G108" t="n">
-        <v>55</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3788,28 +3788,28 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>55230</v>
+        <v>443</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="G109" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3819,28 +3819,28 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>54757</v>
+        <v>64686</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G110" t="n">
-        <v>55</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3850,28 +3850,28 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>55229</v>
+        <v>64686</v>
       </c>
       <c r="G111" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3881,28 +3881,28 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>55230</v>
+        <v>443</v>
       </c>
       <c r="G112" t="n">
-        <v>66</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3912,28 +3912,28 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>54757</v>
+        <v>64686</v>
       </c>
       <c r="G113" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3943,28 +3943,28 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>55121</v>
+        <v>64686</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G114" t="n">
-        <v>55</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3974,28 +3974,28 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>55121</v>
+        <v>64686</v>
       </c>
       <c r="G115" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4005,28 +4005,28 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>55120</v>
+        <v>64686</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="G116" t="n">
-        <v>55</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>06/06/2025 11:35:31 AM</t>
+          <t>09/06/2025 07:57:47 PM</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4036,22 +4036,208 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>10.0.0.172</t>
+          <t>20.60.59.33</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>54756</v>
+        <v>443</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.32.143.17</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>53</v>
+        <v>64686</v>
       </c>
       <c r="G117" t="n">
-        <v>55</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>09/06/2025 07:57:47 PM</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>10.32.143.17</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>64686</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>20.60.59.33</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>443</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>09/06/2025 07:57:47 PM</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>20.60.59.33</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>443</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>10.32.143.17</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>64686</v>
+      </c>
+      <c r="G119" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>09/06/2025 07:57:47 PM</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>10.32.143.17</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>64686</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>20.60.59.33</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>443</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>09/06/2025 07:57:47 PM</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>20.60.59.33</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>443</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>10.32.143.17</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>64686</v>
+      </c>
+      <c r="G121" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>09/06/2025 07:57:47 PM</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>10.32.143.17</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>64686</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>20.60.59.33</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>443</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>09/06/2025 07:57:47 PM</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>20.60.59.33</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>443</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>10.32.143.17</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>64686</v>
+      </c>
+      <c r="G123" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/layer4.xlsx
+++ b/layer4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:43 PM</t>
+          <t>09/06/2025 10:11:04 PM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -471,28 +471,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>142.250.219.238</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>64681</v>
+        <v>443</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>51.105.71.137</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>443</v>
+        <v>54921</v>
       </c>
       <c r="G2" t="n">
-        <v>514</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:43 PM</t>
+          <t>09/06/2025 10:11:04 PM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -502,28 +502,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>142.250.219.238</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>64681</v>
+        <v>443</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>51.105.71.137</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>443</v>
+        <v>54921</v>
       </c>
       <c r="G3" t="n">
-        <v>4706</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:43 PM</t>
+          <t>09/06/2025 10:11:04 PM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,28 +533,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>51.105.71.137</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>443</v>
+        <v>54921</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>142.250.219.238</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>64681</v>
+        <v>443</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:43 PM</t>
+          <t>09/06/2025 10:11:06 PM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>51.105.71.137</t>
+          <t>34.120.52.64</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -572,20 +572,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>64681</v>
+        <v>54654</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:43 PM</t>
+          <t>09/06/2025 10:11:06 PM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>51.105.71.137</t>
+          <t>34.120.52.64</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -603,20 +603,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>64681</v>
+        <v>54654</v>
       </c>
       <c r="G6" t="n">
-        <v>508</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:43 PM</t>
+          <t>09/06/2025 10:11:06 PM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -626,28 +626,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>64681</v>
+        <v>54654</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>51.105.71.137</t>
+          <t>34.120.52.64</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>443</v>
       </c>
       <c r="G7" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:44 PM</t>
+          <t>09/06/2025 10:11:06 PM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -657,28 +657,28 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>64541</v>
+        <v>54654</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13.89.179.13</t>
+          <t>34.120.52.64</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>443</v>
       </c>
       <c r="G8" t="n">
-        <v>167</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:44 PM</t>
+          <t>09/06/2025 10:11:06 PM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -688,28 +688,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>34.120.52.64</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64541</v>
+        <v>443</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13.89.179.13</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>443</v>
+        <v>54654</v>
       </c>
       <c r="G9" t="n">
-        <v>2349</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:44 PM</t>
+          <t>09/06/2025 10:11:06 PM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -719,28 +719,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13.89.179.13</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>443</v>
+        <v>54677</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>142.250.0.188</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>64541</v>
+        <v>5228</v>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:44 PM</t>
+          <t>09/06/2025 10:11:06 PM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -750,28 +750,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13.89.179.13</t>
+          <t>142.250.0.188</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>443</v>
+        <v>5228</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>64541</v>
+        <v>54677</v>
       </c>
       <c r="G11" t="n">
-        <v>148</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:44 PM</t>
+          <t>09/06/2025 10:11:07 PM</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -781,28 +781,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>64541</v>
+        <v>55298</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13.89.179.13</t>
+          <t>10.0.0.108</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>443</v>
+        <v>8009</v>
       </c>
       <c r="G12" t="n">
-        <v>89</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:44 PM</t>
+          <t>09/06/2025 10:11:07 PM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -812,28 +812,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13.89.179.13</t>
+          <t>10.0.0.108</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>443</v>
+        <v>8009</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>64541</v>
+        <v>55298</v>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:07 PM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -843,90 +843,78 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>64685</v>
+        <v>55298</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
+          <t>10.0.0.108</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>443</v>
+        <v>8009</v>
       </c>
       <c r="G14" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:07 PM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>ICMP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fe80:0:0:0:b0a1:9251:36bc:d7dd</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>14012</v>
+          <t>10.0.0.172</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ff02:0:0:0:0:0:1:2</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>55261</v>
+          <t>172.217.172.164</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>150</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:07 PM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>ICMP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>443</v>
+          <t>172.217.172.164</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>64685</v>
+          <t>10.0.0.172</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:07 PM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -936,28 +924,28 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>64685</v>
+        <v>54786</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
+          <t>34.117.138.150</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>443</v>
       </c>
       <c r="G17" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:07 PM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -967,152 +955,128 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>34.117.138.150</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>64685</v>
+        <v>443</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>443</v>
+        <v>54786</v>
       </c>
       <c r="G18" t="n">
-        <v>269</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:08 PM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>ICMP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>443</v>
+          <t>10.0.0.172</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>64685</v>
+          <t>172.217.172.164</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>1514</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:08 PM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>ICMP</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>443</v>
+          <t>172.217.172.164</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>64685</v>
+          <t>10.0.0.172</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>1514</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:09 PM</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>ICMP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>64685</v>
+          <t>10.0.0.172</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>443</v>
+          <t>172.217.172.164</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:09 PM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>ICMP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>443</v>
+          <t>172.217.172.164</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>64685</v>
+          <t>10.0.0.172</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>1514</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1122,19 +1086,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>64685</v>
+        <v>443</v>
       </c>
       <c r="G23" t="n">
         <v>1514</v>
@@ -1143,7 +1107,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1153,28 +1117,28 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64685</v>
+        <v>54957</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>443</v>
       </c>
       <c r="G24" t="n">
-        <v>54</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1184,19 +1148,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>64685</v>
+        <v>443</v>
       </c>
       <c r="G25" t="n">
         <v>1514</v>
@@ -1205,7 +1169,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1215,19 +1179,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>64685</v>
+        <v>443</v>
       </c>
       <c r="G26" t="n">
         <v>1514</v>
@@ -1236,7 +1200,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1246,28 +1210,28 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>64685</v>
+        <v>443</v>
       </c>
       <c r="G27" t="n">
-        <v>280</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1277,28 +1241,28 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>64685</v>
+        <v>54957</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>443</v>
       </c>
       <c r="G28" t="n">
-        <v>54</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1308,28 +1272,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>64685</v>
+        <v>54957</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>443</v>
       </c>
       <c r="G29" t="n">
-        <v>147</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1339,28 +1303,28 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>64685</v>
+        <v>443</v>
       </c>
       <c r="G30" t="n">
-        <v>105</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1370,28 +1334,28 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>64685</v>
+        <v>54957</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>443</v>
       </c>
       <c r="G31" t="n">
-        <v>2710</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1401,28 +1365,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>64601</v>
+        <v>54957</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>52.104.90.25</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>443</v>
       </c>
       <c r="G32" t="n">
-        <v>3005</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1432,28 +1396,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>52.104.90.25</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>64601</v>
+        <v>443</v>
       </c>
       <c r="G33" t="n">
-        <v>60</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1463,90 +1427,90 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>64685</v>
+        <v>443</v>
       </c>
       <c r="G34" t="n">
-        <v>60</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>fe80:0:0:0:b0a1:9251:36bc:d7dd</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14012</v>
+        <v>54957</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ff02:0:0:0:0:0:0:fb</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>55261</v>
+        <v>443</v>
       </c>
       <c r="G35" t="n">
-        <v>102</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>fe80:0:0:0:b0a1:9251:36bc:d7dd</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14012</v>
+        <v>54957</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ff02:0:0:0:0:0:0:fb</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>55261</v>
+        <v>443</v>
       </c>
       <c r="G36" t="n">
-        <v>102</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1556,28 +1520,28 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>52.104.90.25</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>64601</v>
+        <v>443</v>
       </c>
       <c r="G37" t="n">
-        <v>1514</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1587,28 +1551,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>52.104.90.25</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>443</v>
+        <v>54951</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>20.190.173.145</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>64601</v>
+        <v>443</v>
       </c>
       <c r="G38" t="n">
-        <v>643</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:46 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1618,28 +1582,28 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>64601</v>
+        <v>443</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>52.104.90.25</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="G39" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1649,7 +1613,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1657,20 +1621,20 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>64685</v>
+        <v>54957</v>
       </c>
       <c r="G40" t="n">
-        <v>859</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1680,19 +1644,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="G41" t="n">
         <v>66</v>
@@ -1701,7 +1665,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1711,28 +1675,28 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>64685</v>
+        <v>443</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>40.90.133.102</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="G42" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1742,7 +1706,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1750,11 +1714,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>64686</v>
+        <v>54957</v>
       </c>
       <c r="G43" t="n">
         <v>66</v>
@@ -1763,7 +1727,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1773,28 +1737,28 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="G44" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1804,28 +1768,28 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="G45" t="n">
-        <v>266</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1835,7 +1799,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1843,20 +1807,20 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>64686</v>
+        <v>54957</v>
       </c>
       <c r="G46" t="n">
-        <v>1514</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1866,19 +1830,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="G47" t="n">
         <v>1514</v>
@@ -1887,7 +1851,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1897,28 +1861,28 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="G48" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1928,7 +1892,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1936,20 +1900,20 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>64686</v>
+        <v>54957</v>
       </c>
       <c r="G49" t="n">
-        <v>1514</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1959,7 +1923,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1967,20 +1931,20 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>64686</v>
+        <v>54957</v>
       </c>
       <c r="G50" t="n">
-        <v>1514</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1990,19 +1954,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="G51" t="n">
         <v>54</v>
@@ -2011,7 +1975,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2021,7 +1985,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>20.190.173.145</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2029,20 +1993,20 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>64686</v>
+        <v>54951</v>
       </c>
       <c r="G52" t="n">
-        <v>1514</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2052,7 +2016,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2060,82 +2024,70 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>64686</v>
+        <v>54957</v>
       </c>
       <c r="G53" t="n">
-        <v>284</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>ICMP</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>64686</v>
+          <t>10.0.0.172</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>443</v>
+          <t>172.217.172.164</t>
+        </is>
       </c>
       <c r="G54" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>ICMP</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>64686</v>
+          <t>172.217.172.164</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>443</v>
+          <t>10.0.0.172</t>
+        </is>
       </c>
       <c r="G55" t="n">
-        <v>212</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2145,7 +2097,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2153,20 +2105,20 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>64686</v>
+        <v>54957</v>
       </c>
       <c r="G56" t="n">
-        <v>105</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2176,28 +2128,28 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="G57" t="n">
-        <v>800</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2207,28 +2159,28 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>64686</v>
+        <v>54957</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F58" t="n">
         <v>443</v>
       </c>
       <c r="G58" t="n">
-        <v>13014</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2238,7 +2190,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2246,82 +2198,82 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>64686</v>
+        <v>54957</v>
       </c>
       <c r="G59" t="n">
-        <v>60</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>fe80:0:0:0:d6f5:47ff:fe8b:bf38</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>64686</v>
+        <v>65163</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>ff02:0:0:0:0:0:0:fb</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>443</v>
+        <v>48952</v>
       </c>
       <c r="G60" t="n">
-        <v>4374</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>fe80:0:0:0:d6f5:47ff:fe8b:bf38</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>443</v>
+        <v>65163</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>ff02:0:0:0:0:0:0:fb</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>64686</v>
+        <v>48952</v>
       </c>
       <c r="G61" t="n">
-        <v>60</v>
+        <v>439</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2331,28 +2283,28 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>64686</v>
+        <v>54957</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F62" t="n">
         <v>443</v>
       </c>
       <c r="G62" t="n">
-        <v>5814</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2362,28 +2314,28 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="G63" t="n">
-        <v>60</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2393,28 +2345,28 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>64686</v>
+        <v>54957</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F64" t="n">
         <v>443</v>
       </c>
       <c r="G64" t="n">
-        <v>5814</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2424,28 +2376,28 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="G65" t="n">
-        <v>60</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2455,7 +2407,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2463,20 +2415,20 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>64686</v>
+        <v>54957</v>
       </c>
       <c r="G66" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2486,28 +2438,28 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="G67" t="n">
-        <v>11574</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2517,28 +2469,28 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>443</v>
+        <v>54950</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.111.225.21</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="G68" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:10 PM</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2548,28 +2500,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.111.225.21</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>443</v>
+        <v>54950</v>
       </c>
       <c r="G69" t="n">
-        <v>5814</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:11 PM</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2579,7 +2531,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2587,20 +2539,20 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>64686</v>
+        <v>54957</v>
       </c>
       <c r="G70" t="n">
-        <v>60</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:11 PM</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2610,28 +2562,28 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>443</v>
+        <v>54957</v>
       </c>
       <c r="G71" t="n">
-        <v>5814</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:11 PM</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2641,7 +2593,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2649,20 +2601,20 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>64686</v>
+        <v>54957</v>
       </c>
       <c r="G72" t="n">
-        <v>60</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:11 PM</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2672,28 +2624,28 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>64686</v>
+        <v>54957</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.107.244.202</t>
         </is>
       </c>
       <c r="F73" t="n">
         <v>443</v>
       </c>
       <c r="G73" t="n">
-        <v>5814</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:11 PM</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2703,28 +2655,28 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>443</v>
+        <v>54686</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>151.101.249.91</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="G74" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:11 PM</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2734,28 +2686,28 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>64686</v>
+        <v>55294</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>151.101.249.91</t>
         </is>
       </c>
       <c r="F75" t="n">
         <v>443</v>
       </c>
       <c r="G75" t="n">
-        <v>5814</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:11 PM</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2765,7 +2717,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>151.101.249.91</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2773,20 +2725,20 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>64686</v>
+        <v>54686</v>
       </c>
       <c r="G76" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:11 PM</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2796,28 +2748,28 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>151.101.249.91</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>443</v>
+        <v>55294</v>
       </c>
       <c r="G77" t="n">
-        <v>5814</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2827,28 +2779,28 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>443</v>
+        <v>54962</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="G78" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2858,28 +2810,28 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>64686</v>
+        <v>55298</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.108</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>443</v>
+        <v>8009</v>
       </c>
       <c r="G79" t="n">
-        <v>5814</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2889,28 +2841,28 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.108</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>443</v>
+        <v>8009</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>64686</v>
+        <v>55298</v>
       </c>
       <c r="G80" t="n">
-        <v>60</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2920,28 +2872,28 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>64686</v>
+        <v>55298</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.108</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>443</v>
+        <v>8009</v>
       </c>
       <c r="G81" t="n">
-        <v>5814</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2951,7 +2903,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2959,20 +2911,20 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>64686</v>
+        <v>54962</v>
       </c>
       <c r="G82" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2982,28 +2934,28 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>64686</v>
+        <v>54962</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="F83" t="n">
         <v>443</v>
       </c>
       <c r="G83" t="n">
-        <v>5814</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3013,28 +2965,28 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>443</v>
+        <v>54962</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="G84" t="n">
-        <v>60</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3044,28 +2996,28 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>443</v>
+        <v>54962</v>
       </c>
       <c r="G85" t="n">
-        <v>5814</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3075,7 +3027,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -3083,20 +3035,20 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>64686</v>
+        <v>54962</v>
       </c>
       <c r="G86" t="n">
-        <v>60</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3106,28 +3058,28 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>443</v>
+        <v>54962</v>
       </c>
       <c r="G87" t="n">
-        <v>2934</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3137,7 +3089,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -3145,20 +3097,20 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>64686</v>
+        <v>54962</v>
       </c>
       <c r="G88" t="n">
-        <v>60</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3168,7 +3120,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -3176,20 +3128,20 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>64686</v>
+        <v>54962</v>
       </c>
       <c r="G89" t="n">
-        <v>60</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3199,28 +3151,28 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>443</v>
+        <v>54962</v>
       </c>
       <c r="G90" t="n">
-        <v>11574</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3230,28 +3182,28 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>443</v>
+        <v>54962</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="G91" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3261,28 +3213,28 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>64686</v>
+        <v>54962</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="F92" t="n">
         <v>443</v>
       </c>
       <c r="G92" t="n">
-        <v>5814</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3292,28 +3244,28 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>443</v>
+        <v>54962</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="G93" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3323,28 +3275,28 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>443</v>
+        <v>54962</v>
       </c>
       <c r="G94" t="n">
-        <v>5814</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3354,7 +3306,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -3362,20 +3314,20 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>64686</v>
+        <v>54962</v>
       </c>
       <c r="G95" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3385,28 +3337,28 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>64686</v>
+        <v>54962</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="F96" t="n">
         <v>443</v>
       </c>
       <c r="G96" t="n">
-        <v>5814</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3416,28 +3368,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>443</v>
+        <v>54952</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>104.208.16.89</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="G97" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3447,28 +3399,28 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>443</v>
+        <v>54962</v>
       </c>
       <c r="G98" t="n">
-        <v>5814</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3478,28 +3430,28 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>443</v>
+        <v>54962</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="G99" t="n">
-        <v>60</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3509,28 +3461,28 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>64686</v>
+        <v>54962</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="F100" t="n">
         <v>443</v>
       </c>
       <c r="G100" t="n">
-        <v>5814</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3540,7 +3492,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>104.208.16.89</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -3548,20 +3500,20 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>64686</v>
+        <v>54952</v>
       </c>
       <c r="G101" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3571,28 +3523,28 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>443</v>
+        <v>54962</v>
       </c>
       <c r="G102" t="n">
-        <v>5814</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3602,7 +3554,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -3610,20 +3562,20 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>64686</v>
+        <v>54962</v>
       </c>
       <c r="G103" t="n">
-        <v>60</v>
+        <v>847</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3633,28 +3585,28 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>64686</v>
+        <v>54962</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>20.135.4.169</t>
         </is>
       </c>
       <c r="F104" t="n">
         <v>443</v>
       </c>
       <c r="G104" t="n">
-        <v>5814</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3664,28 +3616,28 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>443</v>
+        <v>54963</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>57.150.42.33</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="G105" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3695,28 +3647,28 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>64686</v>
+        <v>54958</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.104.90.25</t>
         </is>
       </c>
       <c r="F106" t="n">
         <v>443</v>
       </c>
       <c r="G106" t="n">
-        <v>5814</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:12 PM</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3726,28 +3678,28 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>443</v>
+        <v>54958</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.104.90.25</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="G107" t="n">
-        <v>60</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3757,28 +3709,28 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.104.90.25</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>443</v>
+        <v>54958</v>
       </c>
       <c r="G108" t="n">
-        <v>5814</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3788,7 +3740,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>57.150.42.33</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -3796,20 +3748,20 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>64686</v>
+        <v>54963</v>
       </c>
       <c r="G109" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3819,28 +3771,28 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>64686</v>
+        <v>54963</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>57.150.42.33</t>
         </is>
       </c>
       <c r="F110" t="n">
         <v>443</v>
       </c>
       <c r="G110" t="n">
-        <v>5814</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3850,28 +3802,28 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>443</v>
+        <v>54963</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>57.150.42.33</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="G111" t="n">
-        <v>60</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3881,28 +3833,28 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.104.90.25</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>443</v>
+        <v>54958</v>
       </c>
       <c r="G112" t="n">
-        <v>5814</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3912,7 +3864,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.104.90.25</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -3920,20 +3872,20 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>64686</v>
+        <v>54958</v>
       </c>
       <c r="G113" t="n">
-        <v>60</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3943,28 +3895,28 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.104.90.25</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>443</v>
+        <v>54958</v>
       </c>
       <c r="G114" t="n">
-        <v>5814</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3974,7 +3926,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>52.104.90.25</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -3982,20 +3934,20 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>64686</v>
+        <v>54958</v>
       </c>
       <c r="G115" t="n">
-        <v>60</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4005,28 +3957,28 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.104.90.25</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>443</v>
+        <v>54958</v>
       </c>
       <c r="G116" t="n">
-        <v>5814</v>
+        <v>756</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4036,28 +3988,28 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>443</v>
+        <v>54958</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>52.104.90.25</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="G117" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4067,28 +4019,28 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>57.150.42.33</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>443</v>
+        <v>54963</v>
       </c>
       <c r="G118" t="n">
-        <v>5814</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4098,7 +4050,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>57.150.42.33</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -4106,20 +4058,20 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>64686</v>
+        <v>54963</v>
       </c>
       <c r="G119" t="n">
-        <v>60</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4129,28 +4081,28 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>57.150.42.33</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>64686</v>
+        <v>443</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>443</v>
+        <v>54963</v>
       </c>
       <c r="G120" t="n">
-        <v>5814</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4160,7 +4112,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>57.150.42.33</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -4168,20 +4120,20 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>64686</v>
+        <v>54963</v>
       </c>
       <c r="G121" t="n">
-        <v>60</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4191,28 +4143,28 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>64686</v>
+        <v>54963</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>57.150.42.33</t>
         </is>
       </c>
       <c r="F122" t="n">
         <v>443</v>
       </c>
       <c r="G122" t="n">
-        <v>5814</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>09/06/2025 07:57:47 PM</t>
+          <t>09/06/2025 10:11:13 PM</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4222,7 +4174,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>20.60.59.33</t>
+          <t>57.150.42.33</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -4230,14 +4182,1936 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>10.32.143.17</t>
+          <t>10.0.0.172</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>64686</v>
+        <v>54963</v>
       </c>
       <c r="G123" t="n">
-        <v>60</v>
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>443</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>54963</v>
+      </c>
+      <c r="G124" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>443</v>
+      </c>
+      <c r="G125" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>443</v>
+      </c>
+      <c r="G126" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>443</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>54963</v>
+      </c>
+      <c r="G127" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>443</v>
+      </c>
+      <c r="G128" t="n">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>443</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>443</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>443</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>443</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>443</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>443</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>443</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>443</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>443</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>54960</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>51.116.246.106</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>443</v>
+      </c>
+      <c r="G138" t="n">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>54960</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>51.116.246.106</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>443</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>54960</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>51.116.246.106</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>443</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>54960</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>51.116.246.106</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>443</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>54960</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>51.116.246.106</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>443</v>
+      </c>
+      <c r="G142" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>443</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>54963</v>
+      </c>
+      <c r="G143" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>443</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>54963</v>
+      </c>
+      <c r="G144" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>443</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>54963</v>
+      </c>
+      <c r="G145" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>443</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>443</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>443</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>443</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>443</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>443</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>443</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>443</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>443</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>443</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>443</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>443</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>54963</v>
+      </c>
+      <c r="G157" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>443</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>54963</v>
+      </c>
+      <c r="G158" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>443</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>443</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>443</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>443</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>443</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>443</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>443</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>443</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>443</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>54963</v>
+      </c>
+      <c r="G167" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>443</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>443</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>443</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>443</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>443</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>54963</v>
+      </c>
+      <c r="G172" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>443</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>54963</v>
+      </c>
+      <c r="G173" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>443</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>443</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>443</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>443</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>443</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>443</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>443</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>54963</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>443</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:13 PM</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>54960</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>51.116.246.106</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>443</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:14 PM</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>443</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>54963</v>
+      </c>
+      <c r="G183" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:14 PM</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>57.150.42.33</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>443</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>54963</v>
+      </c>
+      <c r="G184" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>09/06/2025 10:11:14 PM</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>TCP</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>51.116.246.106</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>443</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>10.0.0.172</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>54960</v>
+      </c>
+      <c r="G185" t="n">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
